--- a/Data/EC/NIT-9006633004.xlsx
+++ b/Data/EC/NIT-9006633004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07180F89-E921-472D-B64C-4503E18CD681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5858DD-1EF0-467A-B7A7-1246171138EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7ADA2C8D-8AA5-42F1-B31D-026E621D9791}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{362A4A9F-D32B-4B14-BE70-A196A69DE87B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,126 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73191849</t>
+  </si>
+  <si>
+    <t>WILMER LEON PADILLA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
     <t>77151831</t>
   </si>
   <si>
@@ -72,126 +192,6 @@
   </si>
   <si>
     <t>2404</t>
-  </si>
-  <si>
-    <t>73191849</t>
-  </si>
-  <si>
-    <t>WILMER LEON PADILLA</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -290,7 +290,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -303,9 +305,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -505,23 +505,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,10 +549,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3811A2-0614-5413-477E-A1169A9B24CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AF2C1F-0870-EF5E-9EE4-5C80007D18DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EC6ABF-EA9B-4E33-B3CF-5B2705D8CE45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D6523-0924-4B52-884C-C9B3DBD300B6}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1134,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1148,19 +1148,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
         <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1171,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
         <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1194,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1217,19 +1217,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1240,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1263,19 +1263,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1286,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1309,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1332,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1355,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1378,19 +1378,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1401,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1424,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1447,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1470,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1493,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1516,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1539,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,19 +1562,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1585,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1631,19 +1631,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1654,19 +1654,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1677,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1700,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1723,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1746,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>27578</v>
       </c>
       <c r="G43" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1769,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1792,19 +1792,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>27578</v>
       </c>
       <c r="G45" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1815,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1838,19 +1838,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>27578</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1861,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>27578</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1884,19 +1884,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>27578</v>
       </c>
       <c r="G49" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1907,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1930,19 +1930,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>27578</v>
       </c>
       <c r="G51" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1953,19 +1953,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1976,19 +1976,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>27578</v>
       </c>
       <c r="G53" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1999,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="24">
-        <v>27578</v>
+        <v>52000</v>
       </c>
       <c r="G54" s="24">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
